--- a/Reference/Reference.xlsx
+++ b/Reference/Reference.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="95">
   <si>
     <t>Journal</t>
   </si>
@@ -146,13 +146,167 @@
   </si>
   <si>
     <t>The dynamic programming equation for second order stochastic target problems</t>
+  </si>
+  <si>
+    <t>Arbitrage and deflators in illiquid markets</t>
+  </si>
+  <si>
+    <t>T Pennanen</t>
+  </si>
+  <si>
+    <t>Large traders, hidden arbitrage, and complete markets</t>
+  </si>
+  <si>
+    <t>R Jarrow, P Protter</t>
+  </si>
+  <si>
+    <t>Journal of Banking &amp; Finance</t>
+  </si>
+  <si>
+    <t>RA Jarrow, P Protter, AF Roch</t>
+  </si>
+  <si>
+    <t>A liquidity-based model for asset price bubbles</t>
+  </si>
+  <si>
+    <t>No arbitrage conditions and liquidity</t>
+  </si>
+  <si>
+    <t>Journal of Mathematical Economics</t>
+  </si>
+  <si>
+    <t>F Astic, N Touzi</t>
+  </si>
+  <si>
+    <t>Y Dolinsky, HM Soner</t>
+  </si>
+  <si>
+    <t>Duality and convergence for binomial markets with friction</t>
+  </si>
+  <si>
+    <t>S Gökay, HM Soner</t>
+  </si>
+  <si>
+    <t>Liquidity in a binomial market</t>
+  </si>
+  <si>
+    <t>P Diesinger, H Kraft, F Seifried</t>
+  </si>
+  <si>
+    <t>Asset allocation and liquidity breakdowns: what if your broker does not answer the phone</t>
+  </si>
+  <si>
+    <t>P Bank, D Kramkov</t>
+  </si>
+  <si>
+    <t>A model for a large investor trading at market indifference prices. I: single-period case</t>
+  </si>
+  <si>
+    <t>V Henderson, D Hobson</t>
+  </si>
+  <si>
+    <t>Optimal liquidation of derivative portfolios</t>
+  </si>
+  <si>
+    <t>A model for a large investor trading at market indifference prices. II: continuous-time case</t>
+  </si>
+  <si>
+    <t>D German</t>
+  </si>
+  <si>
+    <t>Pricing in an equilibrium based model for a large investor</t>
+  </si>
+  <si>
+    <t>Mathematics and Financial Economics</t>
+  </si>
+  <si>
+    <t>Liquidity risk with coherent risk measures</t>
+  </si>
+  <si>
+    <t>Applied Mathematical Finance</t>
+  </si>
+  <si>
+    <t>H Ku</t>
+  </si>
+  <si>
+    <t>A Løkka</t>
+  </si>
+  <si>
+    <t>Optimal Liquidation in a Limit Order Book for a Risk‐Averse Investor</t>
+  </si>
+  <si>
+    <t>Papers that cite Bank and Baum 2004</t>
+  </si>
+  <si>
+    <t>Papers that cite Cetin, Jarrow and Prottoer 2004</t>
+  </si>
+  <si>
+    <t>Predatory trading</t>
+  </si>
+  <si>
+    <t>MK Brunnermeier, LH Pedersen</t>
+  </si>
+  <si>
+    <t>The Journal of Finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U Cetin, R Jarrow, P Protter, M. Warachka
+ </t>
+  </si>
+  <si>
+    <t>Pricing Options in an Extended Black Scholes Economy with Illiquidity: Theory and Empirical Evidence</t>
+  </si>
+  <si>
+    <t>Review of Financial Studies</t>
+  </si>
+  <si>
+    <t>Liquidity risk theory and coherent measures of risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C Acerbi, G Scandolo </t>
+  </si>
+  <si>
+    <t>Fundamental theorems of asset pricing for good deal bounds</t>
+  </si>
+  <si>
+    <t>J Staum</t>
+  </si>
+  <si>
+    <t>Option market liquidity: Commonality and other characteristics</t>
+  </si>
+  <si>
+    <t>Journal of Financial Markets</t>
+  </si>
+  <si>
+    <t>Liquidity risk and risk measure computation</t>
+  </si>
+  <si>
+    <t>M Cao, J Wei</t>
+  </si>
+  <si>
+    <t>Review of Futures Markets</t>
+  </si>
+  <si>
+    <t>Bid-ask dynamic pricing in financial markets with transaction costs and liquidity risk</t>
+  </si>
+  <si>
+    <t>J Bion-Nadal</t>
+  </si>
+  <si>
+    <t>An analysis of the supply curve for liquidity risk through book data</t>
+  </si>
+  <si>
+    <t>M Blais, P Protter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Journal of Theoretical and Applied Finance </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +317,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -188,12 +356,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -209,7 +383,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -251,7 +425,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,7 +460,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -495,242 +669,574 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E17"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B33" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C33" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D33" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>2004</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>2010</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>2010</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>2007</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>2010</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>2013</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>2007</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>2010</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>2014</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>2005</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>2012</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>2009</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>2011</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>2007</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>2009</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" t="s">
-        <v>43</v>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
